--- a/DB/Tablas de aprendizaje de movimientos/Mundo fantasmal.xlsx
+++ b/DB/Tablas de aprendizaje de movimientos/Mundo fantasmal.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\descargas\RETOCAR Tablas de movimientos - copia\Tablas de aprendizaje de movimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oxikr\source\repos\monster-Feudal\DB\Tablas de aprendizaje de movimientos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7752" firstSheet="5" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="5" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Blacephalon" sheetId="1" r:id="rId1"/>
@@ -490,13 +490,13 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -512,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -520,7 +520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -528,7 +528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -550,12 +550,12 @@
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,7 +563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -571,7 +571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -579,7 +579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -608,13 +608,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -622,7 +622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -638,7 +638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -667,13 +667,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -681,7 +681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -689,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -726,13 +726,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -740,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -748,7 +748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -756,7 +756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -764,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -785,13 +785,13 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -815,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -823,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -844,13 +844,13 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -866,7 +866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -874,7 +874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -903,12 +903,12 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,7 +916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -924,7 +924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>29</v>
       </c>
@@ -940,7 +940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
@@ -961,13 +961,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -975,7 +975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -983,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -991,7 +991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>31</v>
       </c>
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>32</v>
       </c>
@@ -1020,13 +1020,13 @@
       <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -1042,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -1058,7 +1058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
